--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -626,14 +626,39 @@
           <t>파산</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D8" t="n">
+        <v>20230214</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>한약 한 제</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>20: 20첩</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>20230214</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>10시 08분</t>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>11시 25분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -701,14 +701,239 @@
           <t>도도: 말하는 모양이 거침이 없다</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>20230214</t>
-        </is>
+      <c r="D11" t="n">
+        <v>20230214</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>전파</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>20시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>교정 : 틀어지거나 잘못된 것을 바로잡음</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>校訂</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>矯正: 바로잡을 교, 바를 정</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>淡淡</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>도도</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>담담: 차분하고 평온하다</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>한약 한 제</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>20: 20첩</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>20시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>知慧</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>미련</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>지혜</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>徵求</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>혹사</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>징구: 돈, 곡식 따위를 내놓으라고 요구함</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>21시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>배추 한 접</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>100: 100개</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>21시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230215</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>21시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>북어 한 쾌</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>20: 20마리</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>20230215</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21시 07분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -926,14 +926,414 @@
           <t>20: 20마리</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>20230215</t>
-        </is>
+      <c r="D20" t="n">
+        <v>20230215</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>21시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>銳敏</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>전파</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>예민: 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>踏襲</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>경영</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>답습: 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>詐稱</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>사칭: 이름, 직업, 나이, 주소 따위를 거짓으로 속여 이름</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>踏襲</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>답습: 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>强度</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>건강</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>강도: 센 정도</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>吮犢之情</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>자유지정</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>연독지정: 자기의 자녀나 부하에 대한 사랑을 겸손하게 이르는 말</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>부의</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>構築</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>미련</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>구축</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>22시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>日照</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>자연</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>일조: 햇볕이 내리쬠</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>22시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>後悔莫及</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>석별지정</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>후회막급: 이미 잘못된 뒤에 아무리 후회하여도 다시 어찌할 수가 없음</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>22시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>踏襲</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>징구</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>답습: 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>22시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>귀감</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>22시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>오이 한 거리</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>50: 50개</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>22시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>바늘 한 쌈</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>24: 24개</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>22시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>예민</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230216</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>吮犢之情</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>석별지정</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>연독지정: 자기의 자녀나 부하에 대한 사랑을 겸손하게 이르는 말</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>20230216</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1326,14 +1326,439 @@
           <t>연독지정: 자기의 자녀나 부하에 대한 사랑을 겸손하게 이르는 말</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>20230216</t>
-        </is>
+      <c r="D36" t="n">
+        <v>20230216</v>
       </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>22시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>징구</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>23시 14분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>개조</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>23시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>詐稱</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>자연</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>사칭: 이름, 직업, 나이, 주소 따위를 거짓으로 속여 이름</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>23시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>戀戀不忘</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>연독지정</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>연연불망: 그리워서 잊지 못함</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>23시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>改組</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>전파</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>개조: 조직 따위를 고쳐 다시 짬</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>踏襲</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>사칭</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>답습: 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>23시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>踏襲</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>좌천</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>답습: 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>23시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>일조</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>23시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>踏襲</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>예민</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>답습: 예로부터 해 오던 방식이나 수법을 좇아 그대로 행함</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>23시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>破散</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>가책</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>파산</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>23시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>遍歷</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>귀감</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>편력: 이곳저곳을 널리 돌아다님. 여러 가지 경험을 함.</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>23시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>한약 한 제</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>20: 20첩</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>23시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>고등어 한 손</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>2: 2마리</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>23시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>바늘 한 쌈</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>24: 24개</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>23시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>銳敏</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>상투</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>예민: 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>23시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>교정 : 남의 문장 또는 출판물의 잘못된 글자나 글귀 따위를 바르게 고침</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>校庭</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>校訂: 학교/바로잡다 교, 바로잡을 정</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230218</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>23시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>銳敏</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>답습</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>예민: 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>20230218</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>23시 34분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어 파이널.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E53"/>
+  <dimension ref="A1:E55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,14 +1751,64 @@
           <t>예민: 무엇인가를 느끼는 능력이나 분석하고 판단하는 능력이 빠르고 뛰어남</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>20230218</t>
-        </is>
+      <c r="D53" t="n">
+        <v>20230218</v>
       </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>23시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>온</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>이동</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>확대: 백(100)-&gt; 모든</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230220</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>방송(放送)</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>확대</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>이동</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>20230220</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
         </is>
       </c>
     </row>
